--- a/biology/Histoire de la zoologie et de la botanique/André_Langaney/André_Langaney.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/André_Langaney/André_Langaney.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Langaney</t>
+          <t>André_Langaney</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">André Langaney (né le 3 décembre 1942[1]) est un généticien et vulgarisateur scientifique français, spécialiste de l'évolution et de la génétique des populations.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">André Langaney (né le 3 décembre 1942) est un généticien et vulgarisateur scientifique français, spécialiste de l'évolution et de la génétique des populations.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Langaney</t>
+          <t>André_Langaney</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ancien élève de l'École normale supérieure (1963), agrégé de sciences naturelles[Quand ?] et docteur d'État en biologie humaine (1972), André Langaney a été directeur[Quand ?] du laboratoire d'Anthropologie biologique du Musée de l'Homme, puis professeur à l'Université de Genève[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ancien élève de l'École normale supérieure (1963), agrégé de sciences naturelles[Quand ?] et docteur d'État en biologie humaine (1972), André Langaney a été directeur[Quand ?] du laboratoire d'Anthropologie biologique du Musée de l'Homme, puis professeur à l'Université de Genève.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Langaney</t>
+          <t>André_Langaney</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,17 +556,12 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Une partie du grand public le connaît mieux par ses chroniques de vulgarisation scientifique, parues tout d'abord dans Charlie Hebdo (pendant quelques mois), puis dans Siné Hebdo (jusqu'à la faillite du journal en avril 2010) et sa suite, Siné Mensuel, auxquels il collabore sous le pseudonyme de Dédé-la-Science. Il est l'auteur de la phrase : « Qui fait un œuf, fait du neuf ».
-Il est également chroniqueur au Courrier de Genève et au magazine Psikopat[2]. Il a également tenu une chronique au mensuel suisse La Cité aujourd'hui disparu. 
-Notion de races humaines
-André Langaney pense que, dans le cas de l'homme, le concept de race est infondé du point de vue génétique, car il suppose une classification arbitraire des êtres humains. Tout au plus peut-on parler de fréquence de certains allèles dans une zone géographique donnée.
-À ses yeux, l'existence de caractères raciaux génétiquement repérables n'a jamais pu être démontrée scientifiquement. Se fondant sur les travaux des biologistes, il explique qu'« il n'y a pas de marqueur génétique de la race » et que les prétendues « races humaines » ne sont donc qu'un concept culturel[3].
-Toutefois, ajoute-t-il, on ne doit pas nier la diversité physique et biologique humaine, dont la science n'a fait que renforcer l’évidence perceptible. Simplement, celle-ci concerne plus les individus que des groupes de personnes, qu'il est impossible de déterminer de manière scientifique.
-Contre l'avis de ses supérieurs, il a fait retirer en 1974 des galeries publiques du Musée de l'Homme le squelette de Saartjie Baartman, dite « la Vénus hottentote », puis, en 1976, son moulage, ce qui lui valut une grande reconnaissance internationale[4].
-Quête hors de la génétique
-La génétique s'étant montrée incapable de définir des groupes humains, André Langaney s'est intéressé aux caractéristiques culturelles et à l'anthropologie. Les sociétés humaines sont différentiées par leur adaptation à divers environnements et par leur langage[5]. Le décloisonnement entre les sciences exactes et humaines lui semble profitable pour l'intellect, car il mobilise les conceptions; il est aussi fructueux pour la médecine.
+Il est également chroniqueur au Courrier de Genève et au magazine Psikopat. Il a également tenu une chronique au mensuel suisse La Cité aujourd'hui disparu. 
 </t>
         </is>
       </c>
@@ -563,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Langaney</t>
+          <t>André_Langaney</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,10 +587,89 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Notion de races humaines</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">André Langaney pense que, dans le cas de l'homme, le concept de race est infondé du point de vue génétique, car il suppose une classification arbitraire des êtres humains. Tout au plus peut-on parler de fréquence de certains allèles dans une zone géographique donnée.
+À ses yeux, l'existence de caractères raciaux génétiquement repérables n'a jamais pu être démontrée scientifiquement. Se fondant sur les travaux des biologistes, il explique qu'« il n'y a pas de marqueur génétique de la race » et que les prétendues « races humaines » ne sont donc qu'un concept culturel.
+Toutefois, ajoute-t-il, on ne doit pas nier la diversité physique et biologique humaine, dont la science n'a fait que renforcer l’évidence perceptible. Simplement, celle-ci concerne plus les individus que des groupes de personnes, qu'il est impossible de déterminer de manière scientifique.
+Contre l'avis de ses supérieurs, il a fait retirer en 1974 des galeries publiques du Musée de l'Homme le squelette de Saartjie Baartman, dite « la Vénus hottentote », puis, en 1976, son moulage, ce qui lui valut une grande reconnaissance internationale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>André_Langaney</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andr%C3%A9_Langaney</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Quête hors de la génétique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La génétique s'étant montrée incapable de définir des groupes humains, André Langaney s'est intéressé aux caractéristiques culturelles et à l'anthropologie. Les sociétés humaines sont différentiées par leur adaptation à divers environnements et par leur langage. Le décloisonnement entre les sciences exactes et humaines lui semble profitable pour l'intellect, car il mobilise les conceptions; il est aussi fructueux pour la médecine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>André_Langaney</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andr%C3%A9_Langaney</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Le sexe et l'innovation, Paris, Éd. du Seuil, 1979  (ISBN 2-02-005275-X)
 Les hommes : passé, présent, conditionnel, Paris, A. Colin, 1988  (ISBN 2-200-37117-9)
